--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -82,7 +82,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Pspn</t>
@@ -94,7 +94,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H2">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>5.312905</v>
       </c>
       <c r="O2">
-        <v>0.6327136050981933</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="P2">
-        <v>0.6327136050981932</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="Q2">
-        <v>0.09572379003055555</v>
+        <v>0.8527909105877777</v>
       </c>
       <c r="R2">
-        <v>0.8615141102749999</v>
+        <v>7.67511819529</v>
       </c>
       <c r="S2">
-        <v>0.04143145891497092</v>
+        <v>0.2101909468814942</v>
       </c>
       <c r="T2">
-        <v>0.04143145891497092</v>
+        <v>0.2101909468814942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +602,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H3">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.7927533333333333</v>
+        <v>0.05538066666666667</v>
       </c>
       <c r="N3">
-        <v>2.37826</v>
+        <v>0.166142</v>
       </c>
       <c r="O3">
-        <v>0.2832268708852933</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="P3">
-        <v>0.2832268708852932</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="Q3">
-        <v>0.04284963892222222</v>
+        <v>0.02666796930622222</v>
       </c>
       <c r="R3">
-        <v>0.3856467503</v>
+        <v>0.240011723756</v>
       </c>
       <c r="S3">
-        <v>0.01854630968916605</v>
+        <v>0.006572966069746252</v>
       </c>
       <c r="T3">
-        <v>0.01854630968916604</v>
+        <v>0.006572966069746253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H4">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1646053333333334</v>
+        <v>0.8737996666666668</v>
       </c>
       <c r="N4">
-        <v>0.493816</v>
+        <v>2.621399</v>
       </c>
       <c r="O4">
-        <v>0.05880852407772574</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="P4">
-        <v>0.05880852407772572</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="Q4">
-        <v>0.008897192608888889</v>
+        <v>0.4207689089535556</v>
       </c>
       <c r="R4">
-        <v>0.08007473348000001</v>
+        <v>3.786920180582</v>
       </c>
       <c r="S4">
-        <v>0.003850909684166248</v>
+        <v>0.1037086750025084</v>
       </c>
       <c r="T4">
-        <v>0.003850909684166248</v>
+        <v>0.1037086750025084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H5">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I5">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J5">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07067766666666667</v>
+        <v>0.347655</v>
       </c>
       <c r="N5">
-        <v>0.212033</v>
+        <v>1.042965</v>
       </c>
       <c r="O5">
-        <v>0.02525099993878777</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="P5">
-        <v>0.02525099993878776</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="Q5">
-        <v>0.003820245679444444</v>
+        <v>0.16740955693</v>
       </c>
       <c r="R5">
-        <v>0.034382211115</v>
+        <v>1.50668601237</v>
       </c>
       <c r="S5">
-        <v>0.001653490233331488</v>
+        <v>0.04126213454113289</v>
       </c>
       <c r="T5">
-        <v>0.001653490233331488</v>
+        <v>0.04126213454113289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H6">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>5.312905</v>
       </c>
       <c r="O6">
-        <v>0.6327136050981933</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="P6">
-        <v>0.6327136050981932</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="Q6">
-        <v>0.8851234794494444</v>
+        <v>0.4601436181766667</v>
       </c>
       <c r="R6">
-        <v>7.966111315044999</v>
+        <v>4.14129256359</v>
       </c>
       <c r="S6">
-        <v>0.3831018084614063</v>
+        <v>0.1134135244703398</v>
       </c>
       <c r="T6">
-        <v>0.3831018084614062</v>
+        <v>0.1134135244703398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H7">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.7927533333333333</v>
+        <v>0.05538066666666667</v>
       </c>
       <c r="N7">
-        <v>2.37826</v>
+        <v>0.166142</v>
       </c>
       <c r="O7">
-        <v>0.2832268708852933</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="P7">
-        <v>0.2832268708852932</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="Q7">
-        <v>0.3962152092377778</v>
+        <v>0.01438933709733333</v>
       </c>
       <c r="R7">
-        <v>3.56593688314</v>
+        <v>0.129504033876</v>
       </c>
       <c r="S7">
-        <v>0.171491059409386</v>
+        <v>0.003546600171196586</v>
       </c>
       <c r="T7">
-        <v>0.171491059409386</v>
+        <v>0.003546600171196586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H8">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I8">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J8">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1646053333333334</v>
+        <v>0.8737996666666668</v>
       </c>
       <c r="N8">
-        <v>0.493816</v>
+        <v>2.621399</v>
       </c>
       <c r="O8">
-        <v>0.05880852407772574</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="P8">
-        <v>0.05880852407772572</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="Q8">
-        <v>0.08226914204711111</v>
+        <v>0.2270358721913334</v>
       </c>
       <c r="R8">
-        <v>0.740422278424</v>
+        <v>2.043322849722</v>
       </c>
       <c r="S8">
-        <v>0.03560797767834693</v>
+        <v>0.05595848215487088</v>
       </c>
       <c r="T8">
-        <v>0.03560797767834693</v>
+        <v>0.05595848215487088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.259826</v>
+      </c>
+      <c r="H9">
+        <v>0.779478</v>
+      </c>
+      <c r="I9">
+        <v>0.1951825728468463</v>
+      </c>
+      <c r="J9">
+        <v>0.1951825728468463</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.4997963333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.499389</v>
-      </c>
-      <c r="I9">
-        <v>0.6054900754061566</v>
-      </c>
-      <c r="J9">
-        <v>0.6054900754061566</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.07067766666666667</v>
+        <v>0.347655</v>
       </c>
       <c r="N9">
-        <v>0.212033</v>
+        <v>1.042965</v>
       </c>
       <c r="O9">
-        <v>0.02525099993878777</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="P9">
-        <v>0.02525099993878776</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="Q9">
-        <v>0.03532443864855555</v>
+        <v>0.09032980803000001</v>
       </c>
       <c r="R9">
-        <v>0.3179199478369999</v>
+        <v>0.8129682722700001</v>
       </c>
       <c r="S9">
-        <v>0.01528922985701746</v>
+        <v>0.02226396605043907</v>
       </c>
       <c r="T9">
-        <v>0.01528922985701746</v>
+        <v>0.02226396605043907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H10">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1060,22 +1060,22 @@
         <v>5.312905</v>
       </c>
       <c r="O10">
-        <v>0.6327136050981933</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="P10">
-        <v>0.6327136050981932</v>
+        <v>0.5810637846204222</v>
       </c>
       <c r="Q10">
-        <v>0.480982602555</v>
+        <v>1.044569071404444</v>
       </c>
       <c r="R10">
-        <v>4.328843422995</v>
+        <v>9.40112164264</v>
       </c>
       <c r="S10">
-        <v>0.2081803377218162</v>
+        <v>0.2574593132685882</v>
       </c>
       <c r="T10">
-        <v>0.2081803377218161</v>
+        <v>0.2574593132685882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H11">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I11">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J11">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.7927533333333333</v>
+        <v>0.05538066666666667</v>
       </c>
       <c r="N11">
-        <v>2.37826</v>
+        <v>0.166142</v>
       </c>
       <c r="O11">
-        <v>0.2832268708852933</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="P11">
-        <v>0.2832268708852932</v>
+        <v>0.01817068050424508</v>
       </c>
       <c r="Q11">
-        <v>0.21530625606</v>
+        <v>0.03266514169955555</v>
       </c>
       <c r="R11">
-        <v>1.93775630454</v>
+        <v>0.293986275296</v>
       </c>
       <c r="S11">
-        <v>0.09318950178674125</v>
+        <v>0.008051114263302239</v>
       </c>
       <c r="T11">
-        <v>0.09318950178674121</v>
+        <v>0.008051114263302241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H12">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I12">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J12">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1646053333333334</v>
+        <v>0.8737996666666668</v>
       </c>
       <c r="N12">
-        <v>0.493816</v>
+        <v>2.621399</v>
       </c>
       <c r="O12">
-        <v>0.05880852407772574</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="P12">
-        <v>0.05880852407772572</v>
+        <v>0.2866981479887539</v>
       </c>
       <c r="Q12">
-        <v>0.04470565629600001</v>
+        <v>0.5153926748568889</v>
       </c>
       <c r="R12">
-        <v>0.402350906664</v>
+        <v>4.638534073712</v>
       </c>
       <c r="S12">
-        <v>0.01934963671521256</v>
+        <v>0.1270309908313745</v>
       </c>
       <c r="T12">
-        <v>0.01934963671521255</v>
+        <v>0.1270309908313746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H13">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I13">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J13">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07067766666666667</v>
+        <v>0.347655</v>
       </c>
       <c r="N13">
-        <v>0.212033</v>
+        <v>1.042965</v>
       </c>
       <c r="O13">
-        <v>0.02525099993878777</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="P13">
-        <v>0.02525099993878776</v>
+        <v>0.1140673868865788</v>
       </c>
       <c r="Q13">
-        <v>0.019195559523</v>
+        <v>0.20505711688</v>
       </c>
       <c r="R13">
-        <v>0.172760035707</v>
+        <v>1.84551405192</v>
       </c>
       <c r="S13">
-        <v>0.008308279848438819</v>
+        <v>0.05054128629500681</v>
       </c>
       <c r="T13">
-        <v>0.008308279848438816</v>
+        <v>0.05054128629500682</v>
       </c>
     </row>
   </sheetData>
